--- a/Lab1-DimensionalModeling/High-Level-Dimensional-Modeling-Workbook.xlsx
+++ b/Lab1-DimensionalModeling/High-Level-Dimensional-Modeling-Workbook.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwilkes\Desktop\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Courses\Data Warehouse\Lab\Dimensional Modeling Asignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="6150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
-    <sheet name="Bus Matrix" sheetId="3" r:id="rId2"/>
+    <sheet name="Detailed Bus Matrix" sheetId="3" r:id="rId2"/>
     <sheet name="Attributes &amp; Metrics" sheetId="1" r:id="rId3"/>
     <sheet name="Issues List" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -39,23 +39,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mafudge:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
- for each business process:
+          <t xml:space="preserve">For each business process:
    1) List the business process (from your requirements)
    2) Declare the fact grain  (type &amp; granularity)
    3) Identify each dimension used by this business process
@@ -68,14 +57,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mafudge:</t>
+          <t>Which business process are you modeling? This usually comes from the enterprise bus matrix.</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -83,48 +75,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Which business process are you modeling? This usually comes from the enterprise bus matrix.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-the name of the fact table</t>
+          <t>The name of the fact table</t>
         </r>
       </text>
     </comment>
     <comment ref="C2" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">mafudge:
-</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -140,23 +96,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mafudge:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Describe the fact grain. Ex. "One row per…"</t>
+          <t>Describe the fact grain. Ex. "One row per…"</t>
         </r>
       </text>
     </comment>
@@ -189,23 +134,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mafudge:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Determine the dimension applicable to each process at the stated level of granularity.</t>
+          <t>Determine the dimension applicable to each process at the stated level of granularity.</t>
         </r>
       </text>
     </comment>
@@ -223,25 +157,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mafudge:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-   1) For each dimension, brainstorm the attributes requred for the        dimension, keeping in mind all of the business processes.
-   2) Keep it at a high level, write record issues in the Issues List if        you have them. 
-   3) Do the same for each fact table, explain derived facts.
+          <t xml:space="preserve">1) For each dimension, brainstorm the attributes requred for the        dimension, keeping in mind all of the business processes.
+2) Keep it at a high level, write record issues in the Issues List if        you have them. 
+3) Do the same for each fact table, explain derived facts.
 </t>
         </r>
       </text>
@@ -250,14 +173,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mafudge:</t>
+          <t>List the name of the dimension or fact table for this attribute / metric</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -265,23 +191,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-List the name of the dimension or fact table for this attribute / metric</t>
+          <t>This represents the name of the attribute or fact</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -289,23 +204,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-This represents the name of the attribute or fact</t>
+          <t>Explain the details of the attribute or fact.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -313,23 +217,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Explain the details of the attribute or fact.</t>
+          <t>If known under other names, list them here</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -337,32 +230,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-If known under other names, list them here</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Provide sample values to give ideas of data type, heirarchy, etc.
+          <t xml:space="preserve">Provide sample values to give ideas of data type, heirarchy, etc.
 </t>
         </r>
       </text>
@@ -381,14 +249,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mafudge:</t>
+          <t>The Fact or Dimension with the issue</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -396,23 +267,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-The Fact or Dimension with the issue</t>
+          <t>A description of the issue itself</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -420,23 +280,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-A description of the issue itself</t>
+          <t>Date the issue was identified</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -444,23 +293,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Date the issue was identified</t>
+          <t>Who reported the issue?</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -468,23 +306,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Who reported the issue?</t>
+          <t>Who is responsible for the issue?</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -492,32 +319,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Who is responsible for the issue?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Issue Status: Open, Resolved, Abandoned, In Progress, etc…
+          <t xml:space="preserve">Issue Status: Open, Resolved, Abandoned, In Progress, etc…
 </t>
         </r>
       </text>
@@ -526,14 +328,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>mafudge:</t>
+          <t>Low, Med, High, ASAP</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -541,32 +346,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Low, Med, High, ASAP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mafudge:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Date the issue was closed (resolved or abandoned)
+          <t xml:space="preserve">Date the issue was closed (resolved or abandoned)
 </t>
         </r>
       </text>
@@ -1019,7 +799,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Bus Matrix </a:t>
+            <a:t>Detailed Bus Matrix </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="0" baseline="0">
@@ -1564,13 +1344,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1585,30 +1365,30 @@
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" style="1" customWidth="1"/>
-    <col min="6" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.54296875" style="1" customWidth="1"/>
+    <col min="6" max="19" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1667,7 +1447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1688,7 +1468,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1709,7 +1489,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1730,7 +1510,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1751,7 +1531,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1772,7 +1552,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1793,7 +1573,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1814,7 +1594,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1835,7 +1615,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1856,7 +1636,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1877,7 +1657,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1898,7 +1678,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1919,7 +1699,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1940,7 +1720,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1961,7 +1741,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1982,7 +1762,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2003,7 +1783,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2024,7 +1804,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2045,7 +1825,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2066,7 +1846,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2087,7 +1867,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2124,25 +1904,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="33.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="40.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
@@ -2159,434 +1939,434 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2611,21 +2391,21 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.26953125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -2654,7 +2434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2665,7 +2445,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2676,7 +2456,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2687,7 +2467,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2698,7 +2478,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2709,7 +2489,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2720,7 +2500,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2731,7 +2511,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2742,7 +2522,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2753,7 +2533,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2764,7 +2544,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2775,7 +2555,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2786,7 +2566,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2797,7 +2577,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2808,7 +2588,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2819,7 +2599,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2830,7 +2610,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2841,7 +2621,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2852,7 +2632,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2863,7 +2643,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2874,7 +2654,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2885,7 +2665,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2896,7 +2676,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2907,7 +2687,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2918,7 +2698,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2929,7 +2709,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2940,7 +2720,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2951,7 +2731,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2962,7 +2742,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2973,7 +2753,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2984,7 +2764,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2995,7 +2775,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3006,7 +2786,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3017,7 +2797,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3028,7 +2808,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3039,7 +2819,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3050,7 +2830,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3061,7 +2841,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3072,7 +2852,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3083,7 +2863,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3094,7 +2874,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3105,7 +2885,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3116,7 +2896,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3127,7 +2907,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3138,7 +2918,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3149,7 +2929,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3160,7 +2940,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3171,7 +2951,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3182,7 +2962,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3193,7 +2973,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3204,7 +2984,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3215,7 +2995,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3226,7 +3006,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3237,7 +3017,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3248,7 +3028,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3259,7 +3039,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3270,7 +3050,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3281,7 +3061,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3292,7 +3072,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3303,7 +3083,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3314,7 +3094,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3325,7 +3105,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3336,7 +3116,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3347,7 +3127,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3358,7 +3138,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3369,7 +3149,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3380,7 +3160,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3391,7 +3171,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3402,7 +3182,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3413,7 +3193,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3424,7 +3204,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3435,7 +3215,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3446,7 +3226,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3457,7 +3237,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3468,7 +3248,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3479,7 +3259,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3490,7 +3270,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3501,7 +3281,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3512,7 +3292,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3523,7 +3303,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3534,7 +3314,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3545,7 +3325,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3556,7 +3336,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3567,7 +3347,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3578,7 +3358,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3589,7 +3369,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3600,7 +3380,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3611,7 +3391,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3622,7 +3402,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3633,7 +3413,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3644,7 +3424,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3655,7 +3435,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3666,7 +3446,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3677,7 +3457,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3688,7 +3468,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3699,7 +3479,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3710,7 +3490,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3721,7 +3501,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3732,7 +3512,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3743,7 +3523,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3754,7 +3534,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3765,7 +3545,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3776,7 +3556,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3787,7 +3567,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3798,7 +3578,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3809,7 +3589,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3820,7 +3600,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3831,7 +3611,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3842,7 +3622,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3853,7 +3633,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3864,7 +3644,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3875,7 +3655,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3886,7 +3666,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3897,7 +3677,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3908,7 +3688,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3919,7 +3699,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3930,7 +3710,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3941,7 +3721,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3952,7 +3732,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3963,7 +3743,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3974,7 +3754,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3985,7 +3765,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3996,7 +3776,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4007,7 +3787,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4018,7 +3798,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4029,7 +3809,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4040,7 +3820,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4051,7 +3831,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4062,7 +3842,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4073,7 +3853,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4084,7 +3864,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4095,7 +3875,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4106,7 +3886,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4117,7 +3897,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4128,7 +3908,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4139,7 +3919,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4150,7 +3930,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4161,7 +3941,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4172,7 +3952,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4183,7 +3963,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4194,7 +3974,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4205,7 +3985,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4216,7 +3996,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4227,7 +4007,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4238,7 +4018,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4249,7 +4029,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4260,7 +4040,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4271,7 +4051,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4282,7 +4062,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4293,7 +4073,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4304,7 +4084,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4315,7 +4095,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4326,7 +4106,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4337,7 +4117,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4348,7 +4128,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4359,7 +4139,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4370,7 +4150,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4381,7 +4161,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4392,7 +4172,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4403,7 +4183,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4414,7 +4194,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4425,7 +4205,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4436,7 +4216,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4447,7 +4227,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4458,7 +4238,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4469,7 +4249,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4480,7 +4260,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4491,7 +4271,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4502,7 +4282,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4513,7 +4293,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4524,7 +4304,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4535,7 +4315,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4546,7 +4326,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4557,7 +4337,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4568,7 +4348,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4579,7 +4359,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4590,7 +4370,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4601,7 +4381,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4612,7 +4392,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4623,7 +4403,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4634,7 +4414,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4645,7 +4425,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4656,7 +4436,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4667,7 +4447,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4678,7 +4458,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4689,7 +4469,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4700,7 +4480,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4711,7 +4491,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4722,7 +4502,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4733,7 +4513,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4744,7 +4524,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4755,7 +4535,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4766,7 +4546,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4777,7 +4557,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4788,7 +4568,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4799,7 +4579,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4810,7 +4590,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4821,7 +4601,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4832,7 +4612,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4843,7 +4623,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4854,7 +4634,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4865,7 +4645,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4876,7 +4656,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -4887,7 +4667,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -4898,7 +4678,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -4909,7 +4689,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -4920,7 +4700,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -4931,7 +4711,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -4942,7 +4722,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -4953,7 +4733,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -4964,7 +4744,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -4975,7 +4755,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -4986,7 +4766,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -4997,7 +4777,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -5008,7 +4788,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -5019,7 +4799,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -5030,7 +4810,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -5041,7 +4821,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -5052,7 +4832,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -5063,7 +4843,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -5074,7 +4854,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -5085,7 +4865,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -5096,7 +4876,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -5107,7 +4887,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -5118,7 +4898,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -5129,7 +4909,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -5140,7 +4920,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -5151,7 +4931,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -5162,7 +4942,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -5173,7 +4953,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -5184,7 +4964,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -5195,7 +4975,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -5206,7 +4986,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -5217,7 +4997,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -5228,7 +5008,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -5239,7 +5019,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -5250,7 +5030,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -5261,7 +5041,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -5272,7 +5052,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -5283,7 +5063,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -5294,7 +5074,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -5305,7 +5085,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -5316,7 +5096,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -5327,7 +5107,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -5338,7 +5118,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -5349,7 +5129,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -5360,7 +5140,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -5371,7 +5151,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -5382,7 +5162,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -5393,7 +5173,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -5404,7 +5184,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -5415,7 +5195,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
